--- a/Reports/MarketBeatRank/2019/T_INV19_BASE/NKE.xlsx
+++ b/Reports/MarketBeatRank/2019/T_INV19_BASE/NKE.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2615" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10526" uniqueCount="62">
   <si>
     <t>Apr_28</t>
   </si>
@@ -144,6 +144,60 @@
   </si>
   <si>
     <t>Jun_09</t>
+  </si>
+  <si>
+    <t>Jun_16</t>
+  </si>
+  <si>
+    <t>Jun_24</t>
+  </si>
+  <si>
+    <t>6/20/2019,Set Price Target,Buy,$103.00</t>
+  </si>
+  <si>
+    <t>6/24/2019,Upgrades,Underperform,$60.00 -&gt; $70.00</t>
+  </si>
+  <si>
+    <t>Jun_30</t>
+  </si>
+  <si>
+    <t>6/28/2019,Reiterates,Buy,$97.00</t>
+  </si>
+  <si>
+    <t>6/25/2019,Set Price Target,Neutral,$83.00</t>
+  </si>
+  <si>
+    <t>6/28/2019,Set Price Target,Buy,$103.00</t>
+  </si>
+  <si>
+    <t>6/28/2019,Set Price Target,Buy,$97.00</t>
+  </si>
+  <si>
+    <t>Jul_07</t>
+  </si>
+  <si>
+    <t>7/1/2019,Set Price Target,Neutral,$83.00</t>
+  </si>
+  <si>
+    <t>Jul_17</t>
+  </si>
+  <si>
+    <t>Jul_23</t>
+  </si>
+  <si>
+    <t>Aug_04</t>
+  </si>
+  <si>
+    <t>Aug_25</t>
+  </si>
+  <si>
+    <t>8/7/2019,Set Price Target,Buy,$96.00</t>
+  </si>
+  <si>
+    <t>8/23/2019,Reiterates,Buy,$100.00</t>
+  </si>
+  <si>
+    <t>Sep_08</t>
   </si>
 </sst>
 </file>
@@ -190,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="541">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -393,6 +447,294 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -463,35 +805,71 @@
     <col min="7" max="7" customWidth="true" width="8.0" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="8.0" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="8.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -526,6 +904,33 @@
       <c r="J2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -550,12 +955,39 @@
         <v>2</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -590,6 +1022,33 @@
       <c r="J4" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -601,25 +1060,52 @@
       <c r="C5" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="160" t="s">
+      <c r="D5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="0" t="s">
+      <c r="N5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -642,16 +1128,43 @@
       <c r="F6" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>2</v>
+      <c r="G6" s="353" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="321" t="s">
+        <v>50</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>2</v>
       </c>
       <c r="J6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -677,13 +1190,40 @@
       <c r="G7" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>2</v>
+      <c r="H7" s="322" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="290" t="s">
+        <v>46</v>
       </c>
       <c r="J7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -718,6 +1258,33 @@
       <c r="J8" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -750,6 +1317,33 @@
       <c r="J9" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -773,13 +1367,40 @@
       <c r="G10" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>2</v>
+      <c r="H10" s="325" t="s">
+        <v>52</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>2</v>
       </c>
       <c r="J10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -814,6 +1435,33 @@
       <c r="J11" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -846,6 +1494,33 @@
       <c r="J12" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -878,6 +1553,33 @@
       <c r="J13" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -886,8 +1588,8 @@
       <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>2</v>
+      <c r="C14" s="489" t="s">
+        <v>59</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>2</v>
@@ -908,6 +1610,33 @@
         <v>2</v>
       </c>
       <c r="J14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -942,6 +1671,33 @@
       <c r="J15" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -974,6 +1730,33 @@
       <c r="J16" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1006,6 +1789,33 @@
       <c r="J17" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1038,6 +1848,33 @@
       <c r="J18" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1070,6 +1907,33 @@
       <c r="J19" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1096,10 +1960,37 @@
       <c r="H20" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="0" t="s">
-        <v>2</v>
+      <c r="I20" s="303" t="s">
+        <v>47</v>
       </c>
       <c r="J20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1134,6 +2025,33 @@
       <c r="J21" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1166,6 +2084,33 @@
       <c r="J22" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1198,6 +2143,33 @@
       <c r="J23" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1230,6 +2202,33 @@
       <c r="J24" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1262,6 +2261,33 @@
       <c r="J25" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -1294,6 +2320,33 @@
       <c r="J26" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -1326,6 +2379,33 @@
       <c r="J27" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -1358,6 +2438,33 @@
       <c r="J28" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -1390,6 +2497,33 @@
       <c r="J29" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -1422,6 +2556,33 @@
       <c r="J30" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="K30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -1431,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>2</v>
@@ -1452,6 +2613,33 @@
         <v>2</v>
       </c>
       <c r="J31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S31" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1477,6 +2665,33 @@
       <c r="G32" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="H32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -1498,6 +2713,33 @@
         <v>2</v>
       </c>
       <c r="G33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" s="0" t="s">
         <v>2</v>
       </c>
     </row>
